--- a/patient_data/patient_39.xlsx
+++ b/patient_data/patient_39.xlsx
@@ -776,16 +776,16 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -853,16 +853,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -930,16 +930,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1007,16 +1007,16 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -1531,16 +1531,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1857,19 +1857,19 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -1934,19 +1934,19 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2011,19 +2011,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2088,19 +2088,19 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2165,19 +2165,19 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
